--- a/data/trans_bre/POLIPATOLOGIA_Lim_5-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_Lim_5-Dificultad-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.474568222138998</v>
+        <v>6.22070817617673</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.814164144457911</v>
+        <v>6.611725496048594</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.266788424165422</v>
+        <v>6.915304814695911</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>1.213509163300735</v>
+        <v>1.119856990912782</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>1.332254982693113</v>
+        <v>1.311002541925759</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3544432715530867</v>
+        <v>0.3956129298450063</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.23834621105166</v>
+        <v>11.12201471699319</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.31694160748246</v>
+        <v>11.30047850331282</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.81739108755074</v>
+        <v>15.21513390251505</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>3.293043025564854</v>
+        <v>3.258489405574445</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3.532064905442924</v>
+        <v>3.560743602616658</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.22023060151805</v>
+        <v>1.253287096153329</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>4.744918971854288</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9.481030900001128</v>
+        <v>9.481030900001132</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>1.645950793850758</v>
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.194606572304701</v>
+        <v>3.335820814006608</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.516304121810611</v>
+        <v>2.615059203546287</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7.158666859804923</v>
+        <v>7.222240886720491</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.7526316627681842</v>
+        <v>0.7517855147027752</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6768479678462311</v>
+        <v>0.7014716158896036</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8779102962866072</v>
+        <v>0.8782671694313542</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.380482731532413</v>
+        <v>7.500823319744324</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.735773782542512</v>
+        <v>6.852118535723248</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11.86947073364227</v>
+        <v>11.81874909797804</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>3.129590062362972</v>
+        <v>3.19087318113942</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.220959014459228</v>
+        <v>3.307489761549909</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.008423542549522</v>
+        <v>2.017542818363423</v>
       </c>
     </row>
     <row r="10">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.113641164267033</v>
+        <v>1.051148362215495</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.041467134662452</v>
+        <v>1.111399396668593</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.60231602863501</v>
+        <v>4.635232115009753</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.2137247934587439</v>
+        <v>0.2092495653710407</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2420248745526242</v>
+        <v>0.2566102117238077</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8110474830125657</v>
+        <v>0.7876293029790067</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.326671649137406</v>
+        <v>5.332053626239301</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.204708826974628</v>
+        <v>5.33635032555187</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.467384187032639</v>
+        <v>8.475245003069922</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>1.966326626575405</v>
+        <v>1.877795683874253</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.195885910497613</v>
+        <v>2.558127963451764</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.142542797591606</v>
+        <v>2.053223563650721</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>3.945968709660257</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4.612984181333405</v>
+        <v>4.612984181333402</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>1.095331974638913</v>
@@ -873,7 +873,7 @@
         <v>2.106718027875897</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8102765376658984</v>
+        <v>0.8102765376658978</v>
       </c>
     </row>
     <row r="14">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3751463307446446</v>
+        <v>0.3523294981185377</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.52154563260242</v>
+        <v>1.601463205034495</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.654702956500052</v>
+        <v>2.440339239203559</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.005905355186826894</v>
+        <v>0.04606062245828062</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3261749609064892</v>
+        <v>0.393781190059556</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3637986669728549</v>
+        <v>0.3630790799755582</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.872196394469401</v>
+        <v>6.092444253909489</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.90961500702965</v>
+        <v>6.717654828421485</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.793712507785179</v>
+        <v>6.52399117366555</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>3.196981462908955</v>
+        <v>3.302156007266335</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>6.945960991540647</v>
+        <v>6.254436707238295</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.412511245369877</v>
+        <v>1.400838881835386</v>
       </c>
     </row>
     <row r="16">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.413305619510219</v>
+        <v>4.420475516063894</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.701023971996724</v>
+        <v>4.620831719281863</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.664387565282019</v>
+        <v>6.785701213407116</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>1.095889736791523</v>
+        <v>1.057962907534818</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>1.311136544842435</v>
+        <v>1.28553707383774</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8689996180898661</v>
+        <v>0.8822656048048485</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.806909148553631</v>
+        <v>6.917900972762915</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.034773354219648</v>
+        <v>7.056591988469675</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.207232236660158</v>
+        <v>9.219272794804956</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2.132160864719551</v>
+        <v>2.232882050382954</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.584665842403356</v>
+        <v>2.591409611131849</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.427184690137331</v>
+        <v>1.430639503302365</v>
       </c>
     </row>
     <row r="19">
